--- a/biology/Zoologie/Cercyonis_oetus/Cercyonis_oetus.xlsx
+++ b/biology/Zoologie/Cercyonis_oetus/Cercyonis_oetus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercyonis oethus est un lépidoptère appartenant à la famille des Nymphalidae à la sous-famille des Satyrinae et au genre  Cercyonis.
 </t>
@@ -511,16 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il a été nommé Cercyonis oetus par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1869[1].
-Noms vernaculaires
-Il se nomme Small Wood Nymph ou Dark Wood Nymph en anglais[1].
-Sous-espèces
-Cercyonis oetus oetus ; en Californie.
-Cercyonis oetus charon (Edwards, 1872) dans tout l'ouest de l'Amérique du Nord.
-Cercyonis oetus pallescens T. et J. Emmel, 1971;
-Cercyonis oetus silvestris (Edwards, 1861); en Californie[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été nommé Cercyonis oetus par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1869.
+</t>
         </is>
       </c>
     </row>
@@ -545,15 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est de couleur marron foncé avec aux antérieures un gros ocelle noir pupillé de blanc et cerné de jaune à l'apex et, chez la femelle, un second ocelle plus petit.
-Le revers est marron terne marbré avec aux antérieures les ocelles noirs pupillés de clair et cernés de jaune[2].
-Chenille
-La chenille, de couleur jaunâtre à verdâtre et tête verte porte une bande vert plus foncé sur le dos.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Small Wood Nymph ou Dark Wood Nymph en anglais.
 </t>
         </is>
       </c>
@@ -579,17 +590,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-La chenille hiverne à son premier stade[3]
-L'imago vole de juin à mi-septembre[2].
-Plantes hôtes
-Les plantes hôtes de ses chenilles seraient des graminées[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cercyonis oetus oetus ; en Californie.
+Cercyonis oetus charon (Edwards, 1872) dans tout l'ouest de l'Amérique du Nord.
+Cercyonis oetus pallescens T. et J. Emmel, 1971;
+Cercyonis oetus silvestris (Edwards, 1861); en Californie.</t>
         </is>
       </c>
     </row>
@@ -614,16 +629,234 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est de couleur marron foncé avec aux antérieures un gros ocelle noir pupillé de blanc et cerné de jaune à l'apex et, chez la femelle, un second ocelle plus petit.
+Le revers est marron terne marbré avec aux antérieures les ocelles noirs pupillés de clair et cernés de jaune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cercyonis_oetus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercyonis_oetus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille, de couleur jaunâtre à verdâtre et tête verte porte une bande vert plus foncé sur le dos.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cercyonis_oetus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercyonis_oetus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille hiverne à son premier stade
+L'imago vole de juin à mi-septembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cercyonis_oetus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercyonis_oetus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de ses chenilles seraient des graminées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cercyonis_oetus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercyonis_oetus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans l'ouest de l'Amérique du Nord. Au Canada il est présent du sud de la Saskatchewan jusque dans le sud de la Colombie-Britannique (mais absent de la zone côtière)[2]. Aux USA il réside de l'état de Washington et de l'Oregon jusqu'à l'ouest du Dakota du Nord  au Colorado, au Nouveau-Mexique et à la Californie[3].
-Biotope
-Il réside dans les bois clairs et dans les prairies.
-Protection
-Pas de statut de protection particulier.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans l'ouest de l'Amérique du Nord. Au Canada il est présent du sud de la Saskatchewan jusque dans le sud de la Colombie-Britannique (mais absent de la zone côtière). Aux USA il réside de l'état de Washington et de l'Oregon jusqu'à l'ouest du Dakota du Nord  au Colorado, au Nouveau-Mexique et à la Californie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cercyonis_oetus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercyonis_oetus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les bois clairs et dans les prairies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cercyonis_oetus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercyonis_oetus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
